--- a/artfynd/A 56950-2025 artfynd.xlsx
+++ b/artfynd/A 56950-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130335710</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>130336577</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>130335671</v>
       </c>
       <c r="B6" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 56950-2025 artfynd.xlsx
+++ b/artfynd/A 56950-2025 artfynd.xlsx
@@ -901,7 +901,7 @@
         <v>130335787</v>
       </c>
       <c r="B4" t="n">
-        <v>57861</v>
+        <v>57881</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
